--- a/tabs/ZDATA__presentations.xlsx
+++ b/tabs/ZDATA__presentations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e64a25058d50c5c4/OneD-2025/6_homepage_byungkiryu/byungkiryu/tabs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitgit\br2\byungkiryu\tabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{939DEAFB-40F9-4F3F-8812-7F6B6EC56897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82B70CD4-D849-496F-A789-3259AFD78ED7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B99B63-80A4-441F-862F-77A9AA34CFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{F9F6B8B3-BF98-4190-A234-00F515AE2407}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{F9F6B8B3-BF98-4190-A234-00F515AE2407}"/>
   </bookViews>
   <sheets>
     <sheet name="read" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4466" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4466" uniqueCount="739">
   <si>
     <t>Key</t>
   </si>
@@ -2237,6 +2237,10 @@
   </si>
   <si>
     <t>Poster</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theoretical and experimental study: Enhancement of Thermoelectric performance in SnTe through the negative correlation effect between thermos-power and carrier density with Ag doping</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3220,13 +3224,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F461032D-9684-45EE-971C-E8681DA0C802}">
   <dimension ref="A1:CI133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="L137" sqref="L137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="12" max="12" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3489,7 +3496,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>707</v>
       </c>
@@ -3530,7 +3537,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>728</v>
       </c>
@@ -3571,7 +3578,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="4" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>720</v>
       </c>
@@ -3612,7 +3619,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>724</v>
       </c>
@@ -3653,7 +3660,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="6" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>732</v>
       </c>
@@ -3694,7 +3701,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>704</v>
       </c>
@@ -3732,7 +3739,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>690</v>
       </c>
@@ -3776,7 +3783,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>699</v>
       </c>
@@ -3817,7 +3824,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>685</v>
       </c>
@@ -3861,7 +3868,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>680</v>
       </c>
@@ -3905,7 +3912,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>669</v>
       </c>
@@ -3946,7 +3953,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>675</v>
       </c>
@@ -3987,7 +3994,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>662</v>
       </c>
@@ -4031,7 +4038,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>652</v>
       </c>
@@ -4069,7 +4076,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>656</v>
       </c>
@@ -4110,7 +4117,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>646</v>
       </c>
@@ -4151,7 +4158,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>626</v>
       </c>
@@ -4195,7 +4202,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>639</v>
       </c>
@@ -4242,7 +4249,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>643</v>
       </c>
@@ -4286,7 +4293,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>634</v>
       </c>
@@ -4330,7 +4337,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>619</v>
       </c>
@@ -4371,7 +4378,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>579</v>
       </c>
@@ -4418,7 +4425,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>587</v>
       </c>
@@ -4465,7 +4472,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>598</v>
       </c>
@@ -4509,7 +4516,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>602</v>
       </c>
@@ -4550,7 +4557,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>592</v>
       </c>
@@ -4597,7 +4604,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>605</v>
       </c>
@@ -4644,7 +4651,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>612</v>
       </c>
@@ -4679,7 +4686,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>576</v>
       </c>
@@ -4708,7 +4715,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>408</v>
       </c>
@@ -4749,7 +4756,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>474</v>
       </c>
@@ -4784,7 +4791,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="33" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>573</v>
       </c>
@@ -4819,7 +4826,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="34" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>555</v>
       </c>
@@ -4860,7 +4867,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="35" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>568</v>
       </c>
@@ -4901,7 +4908,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="36" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>562</v>
       </c>
@@ -4942,7 +4949,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="37" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>376</v>
       </c>
@@ -4983,7 +4990,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="38" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>615</v>
       </c>
@@ -5018,7 +5025,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="39" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>541</v>
       </c>
@@ -5056,7 +5063,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="40" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>536</v>
       </c>
@@ -5094,7 +5101,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="41" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>372</v>
       </c>
@@ -5129,7 +5136,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="42" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>285</v>
       </c>
@@ -5170,7 +5177,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="43" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>551</v>
       </c>
@@ -5205,7 +5212,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="44" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>282</v>
       </c>
@@ -5246,7 +5253,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="45" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>277</v>
       </c>
@@ -5287,7 +5294,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="46" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>143</v>
       </c>
@@ -5325,7 +5332,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>403</v>
       </c>
@@ -5363,7 +5370,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="48" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>272</v>
       </c>
@@ -5404,7 +5411,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="49" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>368</v>
       </c>
@@ -5442,7 +5449,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="50" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>388</v>
       </c>
@@ -5483,7 +5490,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="51" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -5521,7 +5528,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -5559,7 +5566,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>261</v>
       </c>
@@ -5597,7 +5604,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>265</v>
       </c>
@@ -5635,7 +5642,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>269</v>
       </c>
@@ -5673,7 +5680,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>465</v>
       </c>
@@ -5708,7 +5715,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>468</v>
       </c>
@@ -5740,7 +5747,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>471</v>
       </c>
@@ -5775,7 +5782,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>394</v>
       </c>
@@ -5816,7 +5823,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -5854,7 +5861,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>463</v>
       </c>
@@ -5889,7 +5896,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>532</v>
       </c>
@@ -5924,7 +5931,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="63" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>383</v>
       </c>
@@ -5965,7 +5972,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -6003,7 +6010,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>456</v>
       </c>
@@ -6038,7 +6045,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="66" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>460</v>
       </c>
@@ -6070,7 +6077,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="67" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>452</v>
       </c>
@@ -6105,7 +6112,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="68" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>107</v>
       </c>
@@ -6143,7 +6150,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>529</v>
       </c>
@@ -6178,7 +6185,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="70" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>546</v>
       </c>
@@ -6213,7 +6220,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="71" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>256</v>
       </c>
@@ -6251,7 +6258,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="72" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>524</v>
       </c>
@@ -6289,7 +6296,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="73" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>95</v>
       </c>
@@ -6327,7 +6334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>519</v>
       </c>
@@ -6365,7 +6372,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="75" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>113</v>
       </c>
@@ -6403,7 +6410,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>420</v>
       </c>
@@ -6441,7 +6448,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="77" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>515</v>
       </c>
@@ -6479,7 +6486,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="78" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>510</v>
       </c>
@@ -6517,7 +6524,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="79" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>505</v>
       </c>
@@ -6555,7 +6562,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="80" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>447</v>
       </c>
@@ -6587,7 +6594,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="81" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>244</v>
       </c>
@@ -6625,7 +6632,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="82" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>501</v>
       </c>
@@ -6663,7 +6670,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="83" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>119</v>
       </c>
@@ -6701,7 +6708,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>415</v>
       </c>
@@ -6739,7 +6746,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="85" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>492</v>
       </c>
@@ -6777,7 +6784,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="86" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>482</v>
       </c>
@@ -6812,7 +6819,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="87" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>238</v>
       </c>
@@ -6853,7 +6860,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="88" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>496</v>
       </c>
@@ -6891,7 +6898,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="89" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>487</v>
       </c>
@@ -6926,7 +6933,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="90" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>398</v>
       </c>
@@ -6964,7 +6971,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="91" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>477</v>
       </c>
@@ -7002,7 +7009,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="92" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>137</v>
       </c>
@@ -7040,7 +7047,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>229</v>
       </c>
@@ -7090,7 +7097,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="94" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>101</v>
       </c>
@@ -7128,7 +7135,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>443</v>
       </c>
@@ -7163,7 +7170,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="96" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>438</v>
       </c>
@@ -7195,7 +7202,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="97" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>292</v>
       </c>
@@ -7227,7 +7234,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="98" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>435</v>
       </c>
@@ -7259,7 +7266,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="99" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>297</v>
       </c>
@@ -7291,7 +7298,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>425</v>
       </c>
@@ -7326,7 +7333,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="101" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>430</v>
       </c>
@@ -7361,7 +7368,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="102" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>302</v>
       </c>
@@ -7396,7 +7403,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="103" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>307</v>
       </c>
@@ -7434,7 +7441,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="104" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>223</v>
       </c>
@@ -7450,7 +7457,7 @@
       <c r="E104" t="s">
         <v>225</v>
       </c>
-      <c r="L104" s="3">
+      <c r="L104" s="1">
         <v>40452</v>
       </c>
       <c r="M104" s="2">
@@ -7472,7 +7479,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="105" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>310</v>
       </c>
@@ -7504,7 +7511,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="106" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>218</v>
       </c>
@@ -7542,7 +7549,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="107" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>315</v>
       </c>
@@ -7574,7 +7581,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>318</v>
       </c>
@@ -7606,7 +7613,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>154</v>
       </c>
@@ -7641,7 +7648,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>321</v>
       </c>
@@ -7679,7 +7686,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="111" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>324</v>
       </c>
@@ -7711,7 +7718,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>159</v>
       </c>
@@ -7749,7 +7756,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>170</v>
       </c>
@@ -7787,7 +7794,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="114" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>326</v>
       </c>
@@ -7822,7 +7829,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="115" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>330</v>
       </c>
@@ -7854,7 +7861,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="116" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>165</v>
       </c>
@@ -7892,7 +7899,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="117" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>213</v>
       </c>
@@ -7930,7 +7937,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="118" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>338</v>
       </c>
@@ -7965,7 +7972,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="119" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>333</v>
       </c>
@@ -7997,7 +8004,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="120" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>209</v>
       </c>
@@ -8035,7 +8042,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="121" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>205</v>
       </c>
@@ -8073,7 +8080,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="122" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>198</v>
       </c>
@@ -8114,7 +8121,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="123" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>341</v>
       </c>
@@ -8146,7 +8153,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="124" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>346</v>
       </c>
@@ -8178,7 +8185,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="125" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>192</v>
       </c>
@@ -8216,7 +8223,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="126" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>186</v>
       </c>
@@ -8254,7 +8261,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="127" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>350</v>
       </c>
@@ -8286,7 +8293,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="128" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>355</v>
       </c>
@@ -8318,7 +8325,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="129" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>175</v>
       </c>
@@ -8356,7 +8363,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="130" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>359</v>
       </c>
@@ -8391,7 +8398,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="131" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>364</v>
       </c>
@@ -8426,7 +8433,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="132" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>180</v>
       </c>
@@ -8464,7 +8471,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="133" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>249</v>
       </c>
@@ -8478,10 +8485,10 @@
         <v>250</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
-      </c>
-      <c r="L133">
-        <v>2016</v>
+        <v>738</v>
+      </c>
+      <c r="L133" s="1">
+        <v>42663</v>
       </c>
       <c r="M133" s="2">
         <v>44430.20212962963</v>
@@ -8522,12 +8529,12 @@
       <selection activeCell="C13" sqref="A1:CI129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="12" max="12" width="10.5625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8790,7 +8797,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>707</v>
       </c>
@@ -8831,7 +8838,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>704</v>
       </c>
@@ -8869,7 +8876,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>690</v>
       </c>
@@ -8913,7 +8920,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>699</v>
       </c>
@@ -8954,7 +8961,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="6" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>685</v>
       </c>
@@ -8998,7 +9005,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>680</v>
       </c>
@@ -9042,7 +9049,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>669</v>
       </c>
@@ -9083,7 +9090,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>675</v>
       </c>
@@ -9124,7 +9131,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>662</v>
       </c>
@@ -9168,7 +9175,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>652</v>
       </c>
@@ -9206,7 +9213,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>656</v>
       </c>
@@ -9247,7 +9254,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>646</v>
       </c>
@@ -9288,7 +9295,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>626</v>
       </c>
@@ -9332,7 +9339,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>639</v>
       </c>
@@ -9379,7 +9386,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>643</v>
       </c>
@@ -9423,7 +9430,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>634</v>
       </c>
@@ -9467,7 +9474,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>619</v>
       </c>
@@ -9508,7 +9515,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>579</v>
       </c>
@@ -9555,7 +9562,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>587</v>
       </c>
@@ -9602,7 +9609,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>598</v>
       </c>
@@ -9646,7 +9653,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>602</v>
       </c>
@@ -9687,7 +9694,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>592</v>
       </c>
@@ -9734,7 +9741,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>605</v>
       </c>
@@ -9781,7 +9788,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>612</v>
       </c>
@@ -9816,7 +9823,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>576</v>
       </c>
@@ -9845,7 +9852,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>408</v>
       </c>
@@ -9886,7 +9893,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>474</v>
       </c>
@@ -9921,7 +9928,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>573</v>
       </c>
@@ -9956,7 +9963,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>555</v>
       </c>
@@ -9997,7 +10004,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>568</v>
       </c>
@@ -10038,7 +10045,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>562</v>
       </c>
@@ -10079,7 +10086,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="33" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>376</v>
       </c>
@@ -10120,7 +10127,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="34" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>615</v>
       </c>
@@ -10155,7 +10162,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="35" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>541</v>
       </c>
@@ -10193,7 +10200,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="36" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>536</v>
       </c>
@@ -10231,7 +10238,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="37" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>372</v>
       </c>
@@ -10266,7 +10273,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>285</v>
       </c>
@@ -10307,7 +10314,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="39" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>551</v>
       </c>
@@ -10342,7 +10349,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="40" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>282</v>
       </c>
@@ -10383,7 +10390,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="41" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>277</v>
       </c>
@@ -10424,7 +10431,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>143</v>
       </c>
@@ -10462,7 +10469,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>403</v>
       </c>
@@ -10500,7 +10507,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="44" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>272</v>
       </c>
@@ -10541,7 +10548,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>368</v>
       </c>
@@ -10579,7 +10586,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>388</v>
       </c>
@@ -10620,7 +10627,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="47" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -10658,7 +10665,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>149</v>
       </c>
@@ -10696,7 +10703,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>261</v>
       </c>
@@ -10734,7 +10741,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>265</v>
       </c>
@@ -10772,7 +10779,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>269</v>
       </c>
@@ -10810,7 +10817,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>465</v>
       </c>
@@ -10845,7 +10852,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>468</v>
       </c>
@@ -10877,7 +10884,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>471</v>
       </c>
@@ -10912,7 +10919,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>394</v>
       </c>
@@ -10953,7 +10960,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -10991,7 +10998,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>463</v>
       </c>
@@ -11026,7 +11033,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>532</v>
       </c>
@@ -11061,7 +11068,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="59" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>383</v>
       </c>
@@ -11102,7 +11109,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -11140,7 +11147,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>456</v>
       </c>
@@ -11175,7 +11182,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="62" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>460</v>
       </c>
@@ -11207,7 +11214,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="63" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>452</v>
       </c>
@@ -11242,7 +11249,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="64" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>107</v>
       </c>
@@ -11280,7 +11287,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>529</v>
       </c>
@@ -11315,7 +11322,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="66" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>546</v>
       </c>
@@ -11350,7 +11357,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="67" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>256</v>
       </c>
@@ -11388,7 +11395,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="68" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>524</v>
       </c>
@@ -11426,7 +11433,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="69" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>95</v>
       </c>
@@ -11461,7 +11468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>519</v>
       </c>
@@ -11499,7 +11506,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="71" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -11537,7 +11544,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>420</v>
       </c>
@@ -11575,7 +11582,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="73" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>515</v>
       </c>
@@ -11613,7 +11620,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="74" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>510</v>
       </c>
@@ -11651,7 +11658,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="75" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>505</v>
       </c>
@@ -11689,7 +11696,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="76" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>447</v>
       </c>
@@ -11721,7 +11728,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="77" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>244</v>
       </c>
@@ -11759,7 +11766,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="78" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>501</v>
       </c>
@@ -11797,7 +11804,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="79" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>119</v>
       </c>
@@ -11835,7 +11842,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>415</v>
       </c>
@@ -11873,7 +11880,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="81" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>492</v>
       </c>
@@ -11911,7 +11918,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="82" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>482</v>
       </c>
@@ -11946,7 +11953,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="83" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>238</v>
       </c>
@@ -11987,7 +11994,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>496</v>
       </c>
@@ -12025,7 +12032,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="85" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>487</v>
       </c>
@@ -12060,7 +12067,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="86" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>398</v>
       </c>
@@ -12098,7 +12105,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="87" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>477</v>
       </c>
@@ -12136,7 +12143,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="88" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>137</v>
       </c>
@@ -12174,7 +12181,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="89" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>229</v>
       </c>
@@ -12224,7 +12231,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="90" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>101</v>
       </c>
@@ -12262,7 +12269,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>443</v>
       </c>
@@ -12297,7 +12304,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="92" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>438</v>
       </c>
@@ -12329,7 +12336,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="93" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>292</v>
       </c>
@@ -12361,7 +12368,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="94" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>435</v>
       </c>
@@ -12393,7 +12400,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="95" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>297</v>
       </c>
@@ -12425,7 +12432,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="96" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>425</v>
       </c>
@@ -12460,7 +12467,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="97" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>430</v>
       </c>
@@ -12495,7 +12502,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="98" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>302</v>
       </c>
@@ -12530,7 +12537,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="99" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>307</v>
       </c>
@@ -12568,7 +12575,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="100" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>223</v>
       </c>
@@ -12606,7 +12613,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="101" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>310</v>
       </c>
@@ -12638,7 +12645,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>218</v>
       </c>
@@ -12676,7 +12683,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="103" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>315</v>
       </c>
@@ -12708,7 +12715,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="104" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>318</v>
       </c>
@@ -12740,7 +12747,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="105" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>154</v>
       </c>
@@ -12775,7 +12782,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="106" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>321</v>
       </c>
@@ -12813,7 +12820,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="107" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>324</v>
       </c>
@@ -12845,7 +12852,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>159</v>
       </c>
@@ -12883,7 +12890,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="109" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>170</v>
       </c>
@@ -12921,7 +12928,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="110" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>326</v>
       </c>
@@ -12956,7 +12963,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>330</v>
       </c>
@@ -12988,7 +12995,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="112" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>165</v>
       </c>
@@ -13026,7 +13033,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="113" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>213</v>
       </c>
@@ -13064,7 +13071,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="114" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>338</v>
       </c>
@@ -13099,7 +13106,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="115" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>333</v>
       </c>
@@ -13131,7 +13138,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="116" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>209</v>
       </c>
@@ -13169,7 +13176,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="117" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>205</v>
       </c>
@@ -13207,7 +13214,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="118" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>198</v>
       </c>
@@ -13248,7 +13255,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="119" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>341</v>
       </c>
@@ -13280,7 +13287,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="120" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>346</v>
       </c>
@@ -13312,7 +13319,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="121" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>192</v>
       </c>
@@ -13350,7 +13357,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="122" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>186</v>
       </c>
@@ -13388,7 +13395,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="123" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>350</v>
       </c>
@@ -13420,7 +13427,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="124" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>355</v>
       </c>
@@ -13452,7 +13459,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="125" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>175</v>
       </c>
@@ -13490,7 +13497,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="126" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>359</v>
       </c>
@@ -13525,7 +13532,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="127" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>364</v>
       </c>
@@ -13560,7 +13567,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="128" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>180</v>
       </c>
@@ -13598,7 +13605,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="129" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>249</v>
       </c>
@@ -13654,9 +13661,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13919,7 +13926,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -13957,7 +13964,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -13992,7 +13999,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -14030,7 +14037,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -14068,7 +14075,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -14106,7 +14113,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -14144,7 +14151,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -14182,7 +14189,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -14220,7 +14227,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -14258,7 +14265,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -14296,7 +14303,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>149</v>
       </c>
@@ -14334,7 +14341,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>154</v>
       </c>
@@ -14369,7 +14376,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -14407,7 +14414,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>165</v>
       </c>
@@ -14445,7 +14452,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>170</v>
       </c>
@@ -14483,7 +14490,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>175</v>
       </c>
@@ -14521,7 +14528,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>180</v>
       </c>
@@ -14559,7 +14566,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>186</v>
       </c>
@@ -14597,7 +14604,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -14635,7 +14642,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>198</v>
       </c>
@@ -14676,7 +14683,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>205</v>
       </c>
@@ -14714,7 +14721,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>209</v>
       </c>
@@ -14752,7 +14759,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>213</v>
       </c>
@@ -14790,7 +14797,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>218</v>
       </c>
@@ -14828,7 +14835,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>223</v>
       </c>
@@ -14866,7 +14873,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>229</v>
       </c>
@@ -14916,7 +14923,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>238</v>
       </c>
@@ -14957,7 +14964,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>244</v>
       </c>
@@ -14995,7 +15002,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>249</v>
       </c>
@@ -15036,7 +15043,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>256</v>
       </c>
@@ -15074,7 +15081,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>261</v>
       </c>
@@ -15112,7 +15119,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>265</v>
       </c>
@@ -15150,7 +15157,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>269</v>
       </c>
@@ -15188,7 +15195,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>272</v>
       </c>
@@ -15229,7 +15236,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="36" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>277</v>
       </c>
@@ -15270,7 +15277,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>282</v>
       </c>
@@ -15311,7 +15318,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>285</v>
       </c>
@@ -15352,7 +15359,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="39" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>292</v>
       </c>
@@ -15384,7 +15391,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="40" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>297</v>
       </c>
@@ -15416,7 +15423,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>302</v>
       </c>
@@ -15451,7 +15458,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>307</v>
       </c>
@@ -15489,7 +15496,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>310</v>
       </c>
@@ -15521,7 +15528,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="44" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>315</v>
       </c>
@@ -15553,7 +15560,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>318</v>
       </c>
@@ -15585,7 +15592,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>321</v>
       </c>
@@ -15623,7 +15630,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>324</v>
       </c>
@@ -15655,7 +15662,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>326</v>
       </c>
@@ -15690,7 +15697,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>330</v>
       </c>
@@ -15722,7 +15729,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>333</v>
       </c>
@@ -15754,7 +15761,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="51" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>338</v>
       </c>
@@ -15789,7 +15796,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="52" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>341</v>
       </c>
@@ -15821,7 +15828,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="53" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>346</v>
       </c>
@@ -15853,7 +15860,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>350</v>
       </c>
@@ -15885,7 +15892,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>355</v>
       </c>
@@ -15917,7 +15924,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="56" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>359</v>
       </c>
@@ -15952,7 +15959,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="57" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>364</v>
       </c>
@@ -15987,7 +15994,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="58" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>368</v>
       </c>
@@ -16025,7 +16032,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="59" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>372</v>
       </c>
@@ -16060,7 +16067,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="60" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>376</v>
       </c>
@@ -16101,7 +16108,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="61" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>383</v>
       </c>
@@ -16142,7 +16149,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>388</v>
       </c>
@@ -16183,7 +16190,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="63" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>394</v>
       </c>
@@ -16224,7 +16231,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>398</v>
       </c>
@@ -16262,7 +16269,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="65" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>403</v>
       </c>
@@ -16300,7 +16307,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="66" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>408</v>
       </c>
@@ -16341,7 +16348,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="67" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>415</v>
       </c>
@@ -16379,7 +16386,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="68" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>420</v>
       </c>
@@ -16417,7 +16424,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="69" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>425</v>
       </c>
@@ -16452,7 +16459,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="70" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>430</v>
       </c>
@@ -16487,7 +16494,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="71" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>435</v>
       </c>
@@ -16519,7 +16526,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="72" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>438</v>
       </c>
@@ -16551,7 +16558,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="73" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>443</v>
       </c>
@@ -16586,7 +16593,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="74" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>447</v>
       </c>
@@ -16618,7 +16625,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="75" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>452</v>
       </c>
@@ -16653,7 +16660,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="76" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>456</v>
       </c>
@@ -16688,7 +16695,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="77" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>460</v>
       </c>
@@ -16720,7 +16727,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="78" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>463</v>
       </c>
@@ -16755,7 +16762,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>465</v>
       </c>
@@ -16790,7 +16797,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>468</v>
       </c>
@@ -16822,7 +16829,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>471</v>
       </c>
@@ -16857,7 +16864,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>474</v>
       </c>
@@ -16892,7 +16899,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="83" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>477</v>
       </c>
@@ -16930,7 +16937,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="84" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>482</v>
       </c>
@@ -16965,7 +16972,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="85" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>487</v>
       </c>
@@ -17000,7 +17007,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="86" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>492</v>
       </c>
@@ -17038,7 +17045,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="87" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>496</v>
       </c>
@@ -17076,7 +17083,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>501</v>
       </c>
@@ -17114,7 +17121,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="89" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>505</v>
       </c>
@@ -17152,7 +17159,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="90" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>510</v>
       </c>
@@ -17190,7 +17197,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="91" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>515</v>
       </c>
@@ -17228,7 +17235,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="92" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>519</v>
       </c>
@@ -17266,7 +17273,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="93" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>524</v>
       </c>
@@ -17304,7 +17311,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="94" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>529</v>
       </c>
@@ -17339,7 +17346,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="95" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>532</v>
       </c>
@@ -17374,7 +17381,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="96" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>536</v>
       </c>
@@ -17412,7 +17419,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="97" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>541</v>
       </c>
@@ -17450,7 +17457,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="98" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>546</v>
       </c>
@@ -17485,7 +17492,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="99" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>551</v>
       </c>
@@ -17520,7 +17527,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="100" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>555</v>
       </c>
@@ -17561,7 +17568,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="101" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>562</v>
       </c>
@@ -17602,7 +17609,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="102" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>568</v>
       </c>
@@ -17643,7 +17650,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="103" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>573</v>
       </c>
@@ -17678,7 +17685,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="104" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>576</v>
       </c>
@@ -17707,7 +17714,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="105" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>579</v>
       </c>
@@ -17754,7 +17761,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="106" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>587</v>
       </c>
@@ -17801,7 +17808,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="107" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>592</v>
       </c>
@@ -17848,7 +17855,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="108" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>598</v>
       </c>
@@ -17892,7 +17899,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="109" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>602</v>
       </c>
@@ -17933,7 +17940,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="110" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>605</v>
       </c>
@@ -17980,7 +17987,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="111" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>612</v>
       </c>
@@ -18015,7 +18022,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="112" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>615</v>
       </c>
@@ -18050,7 +18057,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="113" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>619</v>
       </c>
@@ -18091,7 +18098,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="114" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>626</v>
       </c>
@@ -18135,7 +18142,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="115" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>634</v>
       </c>
@@ -18179,7 +18186,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="116" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>639</v>
       </c>
@@ -18226,7 +18233,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="117" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>643</v>
       </c>
@@ -18270,7 +18277,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="118" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>646</v>
       </c>
@@ -18311,7 +18318,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="119" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>652</v>
       </c>
@@ -18349,7 +18356,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="120" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>656</v>
       </c>
@@ -18390,7 +18397,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="121" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>662</v>
       </c>
@@ -18434,7 +18441,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="122" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>669</v>
       </c>
@@ -18475,7 +18482,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="123" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>675</v>
       </c>
@@ -18516,7 +18523,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="124" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>680</v>
       </c>
@@ -18560,7 +18567,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="125" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>685</v>
       </c>
@@ -18604,7 +18611,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="126" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>690</v>
       </c>
@@ -18648,7 +18655,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="127" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>699</v>
       </c>
@@ -18689,7 +18696,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="128" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>704</v>
       </c>
@@ -18727,7 +18734,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="129" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>707</v>
       </c>
@@ -18782,9 +18789,9 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19047,7 +19054,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -19085,7 +19092,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -19123,7 +19130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -19161,7 +19168,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -19199,7 +19206,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -19237,7 +19244,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -19275,7 +19282,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -19313,7 +19320,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -19351,7 +19358,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -19389,7 +19396,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -19427,7 +19434,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>149</v>
       </c>
@@ -19465,7 +19472,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>154</v>
       </c>
@@ -19500,7 +19507,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -19538,7 +19545,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>165</v>
       </c>
@@ -19576,7 +19583,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>170</v>
       </c>
@@ -19614,7 +19621,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>175</v>
       </c>
@@ -19652,7 +19659,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>180</v>
       </c>
@@ -19690,7 +19697,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>186</v>
       </c>
@@ -19728,7 +19735,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -19766,7 +19773,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>198</v>
       </c>
@@ -19807,7 +19814,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>205</v>
       </c>
@@ -19845,7 +19852,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>209</v>
       </c>
@@ -19883,7 +19890,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>213</v>
       </c>
@@ -19921,7 +19928,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>218</v>
       </c>
@@ -19959,7 +19966,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>223</v>
       </c>
@@ -19997,7 +20004,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>229</v>
       </c>
@@ -20047,7 +20054,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>238</v>
       </c>
@@ -20088,7 +20095,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>244</v>
       </c>
@@ -20126,7 +20133,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>249</v>
       </c>
@@ -20167,7 +20174,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>256</v>
       </c>
@@ -20205,7 +20212,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>261</v>
       </c>
@@ -20243,7 +20250,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>265</v>
       </c>
@@ -20281,7 +20288,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>269</v>
       </c>
@@ -20319,7 +20326,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>272</v>
       </c>
@@ -20360,7 +20367,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="36" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>277</v>
       </c>
@@ -20401,7 +20408,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>282</v>
       </c>
@@ -20442,7 +20449,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>285</v>
       </c>
@@ -20483,7 +20490,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="39" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>292</v>
       </c>
@@ -20515,7 +20522,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="40" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>297</v>
       </c>
@@ -20547,7 +20554,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>302</v>
       </c>
@@ -20582,7 +20589,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>307</v>
       </c>
@@ -20620,7 +20627,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>310</v>
       </c>
@@ -20652,7 +20659,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="44" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>315</v>
       </c>
@@ -20684,7 +20691,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>318</v>
       </c>
@@ -20716,7 +20723,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>321</v>
       </c>
@@ -20754,7 +20761,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>324</v>
       </c>
@@ -20786,7 +20793,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>326</v>
       </c>
@@ -20821,7 +20828,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>330</v>
       </c>
@@ -20853,7 +20860,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>333</v>
       </c>
@@ -20885,7 +20892,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="51" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>338</v>
       </c>
@@ -20920,7 +20927,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="52" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>341</v>
       </c>
@@ -20952,7 +20959,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="53" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>346</v>
       </c>
@@ -20984,7 +20991,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>350</v>
       </c>
@@ -21016,7 +21023,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>355</v>
       </c>
@@ -21048,7 +21055,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="56" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>359</v>
       </c>
@@ -21083,7 +21090,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="57" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>364</v>
       </c>
@@ -21118,7 +21125,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="58" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>368</v>
       </c>
@@ -21156,7 +21163,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="59" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>372</v>
       </c>
@@ -21191,7 +21198,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="60" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>376</v>
       </c>
@@ -21232,7 +21239,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="61" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>383</v>
       </c>
@@ -21273,7 +21280,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>388</v>
       </c>
@@ -21314,7 +21321,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="63" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>394</v>
       </c>
@@ -21355,7 +21362,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>398</v>
       </c>
@@ -21393,7 +21400,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="65" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>403</v>
       </c>
@@ -21431,7 +21438,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="66" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>408</v>
       </c>
@@ -21472,7 +21479,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="67" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>415</v>
       </c>
@@ -21510,7 +21517,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="68" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>420</v>
       </c>
@@ -21548,7 +21555,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="69" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>425</v>
       </c>
@@ -21583,7 +21590,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="70" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>430</v>
       </c>
@@ -21618,7 +21625,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="71" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>435</v>
       </c>
@@ -21650,7 +21657,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="72" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>438</v>
       </c>
@@ -21682,7 +21689,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="73" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>443</v>
       </c>
@@ -21717,7 +21724,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="74" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>447</v>
       </c>
@@ -21749,7 +21756,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="75" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>452</v>
       </c>
@@ -21784,7 +21791,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="76" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>456</v>
       </c>
@@ -21819,7 +21826,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="77" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>460</v>
       </c>
@@ -21851,7 +21858,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="78" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>463</v>
       </c>
@@ -21886,7 +21893,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>465</v>
       </c>
@@ -21921,7 +21928,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>468</v>
       </c>
@@ -21953,7 +21960,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>471</v>
       </c>
@@ -21988,7 +21995,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>474</v>
       </c>
@@ -22023,7 +22030,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="83" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>477</v>
       </c>
@@ -22061,7 +22068,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="84" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>482</v>
       </c>
@@ -22096,7 +22103,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="85" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>487</v>
       </c>
@@ -22131,7 +22138,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="86" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>492</v>
       </c>
@@ -22169,7 +22176,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="87" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>496</v>
       </c>
@@ -22207,7 +22214,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>501</v>
       </c>
@@ -22245,7 +22252,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="89" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>505</v>
       </c>
@@ -22283,7 +22290,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="90" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>510</v>
       </c>
@@ -22321,7 +22328,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="91" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>515</v>
       </c>
@@ -22359,7 +22366,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="92" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>519</v>
       </c>
@@ -22397,7 +22404,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="93" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>524</v>
       </c>
@@ -22435,7 +22442,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="94" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>529</v>
       </c>
@@ -22470,7 +22477,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="95" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>532</v>
       </c>
@@ -22505,7 +22512,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="96" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>536</v>
       </c>
@@ -22543,7 +22550,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="97" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>541</v>
       </c>
@@ -22581,7 +22588,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="98" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>546</v>
       </c>
@@ -22616,7 +22623,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="99" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>551</v>
       </c>
@@ -22651,7 +22658,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="100" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>555</v>
       </c>
@@ -22692,7 +22699,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="101" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>562</v>
       </c>
@@ -22733,7 +22740,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="102" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>568</v>
       </c>
@@ -22774,7 +22781,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="103" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>573</v>
       </c>
@@ -22809,7 +22816,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="104" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>576</v>
       </c>
@@ -22838,7 +22845,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="105" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>579</v>
       </c>
@@ -22885,7 +22892,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="106" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>587</v>
       </c>
@@ -22932,7 +22939,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="107" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>592</v>
       </c>
@@ -22979,7 +22986,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="108" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>598</v>
       </c>
@@ -23023,7 +23030,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="109" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>602</v>
       </c>
@@ -23064,7 +23071,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="110" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>605</v>
       </c>
@@ -23111,7 +23118,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="111" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>612</v>
       </c>
@@ -23146,7 +23153,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="112" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>615</v>
       </c>
@@ -23181,7 +23188,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="113" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>619</v>
       </c>
@@ -23222,7 +23229,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="114" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>626</v>
       </c>
@@ -23266,7 +23273,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="115" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>634</v>
       </c>
@@ -23310,7 +23317,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="116" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>639</v>
       </c>
@@ -23357,7 +23364,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="117" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>643</v>
       </c>
@@ -23401,7 +23408,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="118" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>646</v>
       </c>
@@ -23442,7 +23449,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="119" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>652</v>
       </c>
@@ -23480,7 +23487,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="120" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>656</v>
       </c>
@@ -23521,7 +23528,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="121" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>662</v>
       </c>
@@ -23565,7 +23572,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="122" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>669</v>
       </c>
@@ -23606,7 +23613,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="123" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>675</v>
       </c>
@@ -23647,7 +23654,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="124" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>680</v>
       </c>
@@ -23691,7 +23698,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="125" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>685</v>
       </c>
@@ -23735,7 +23742,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="126" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>690</v>
       </c>
@@ -23779,7 +23786,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="127" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>699</v>
       </c>
@@ -23820,7 +23827,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="128" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>704</v>
       </c>
@@ -23858,7 +23865,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="129" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>707</v>
       </c>
@@ -23899,7 +23906,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="130" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>720</v>
       </c>
@@ -23940,7 +23947,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="131" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>724</v>
       </c>
@@ -23981,7 +23988,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="132" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>728</v>
       </c>
@@ -24022,7 +24029,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="133" spans="1:71" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>732</v>
       </c>
